--- a/Result/10-10-24/S&P500stock_10-10-24period252RS90.xlsx
+++ b/Result/10-10-24/S&P500stock_10-10-24period252RS90.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="新細明體"/>
       <family val="2"/>
@@ -39,6 +39,9 @@
     </font>
     <font>
       <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="4">
@@ -88,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -97,6 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1204,13 +1208,13 @@
       <c r="E6" t="n">
         <v>0.93</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="6" t="n">
         <v>-1.275437734674387</v>
       </c>
       <c r="G6" t="n">
         <v>1.44</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="6" t="n">
         <v>-1.003218893702736</v>
       </c>
       <c r="I6" t="n">
@@ -1840,13 +1844,13 @@
       <c r="E11" t="n">
         <v>0.77</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="6" t="n">
         <v>-1.592857261216533</v>
       </c>
       <c r="G11" t="n">
         <v>1.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="6" t="n">
         <v>-1.327456451007182</v>
       </c>
       <c r="I11" t="n">
@@ -2348,7 +2352,7 @@
       <c r="E15" t="n">
         <v>0.8</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="6" t="n">
         <v>-1.53334109998988</v>
       </c>
       <c r="G15" t="n">
@@ -2990,13 +2994,13 @@
       <c r="E20" t="n">
         <v>1.02</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="6" t="n">
         <v>-1.09688925099443</v>
       </c>
       <c r="G20" t="n">
         <v>1.21</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="6" t="n">
         <v>-1.313946552786164</v>
       </c>
       <c r="I20" t="n">
@@ -3117,7 +3121,7 @@
       <c r="E21" t="n">
         <v>0.96</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="6" t="n">
         <v>-1.215921573447735</v>
       </c>
       <c r="G21" t="n">
@@ -3244,13 +3248,13 @@
       <c r="E22" t="n">
         <v>0.89</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="6" t="n">
         <v>-1.354792616309924</v>
       </c>
       <c r="G22" t="n">
         <v>1.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="6" t="n">
         <v>-1.462555433217368</v>
       </c>
       <c r="I22" t="n">

--- a/Result/10-10-24/S&P500stock_10-10-24period252RS90.xlsx
+++ b/Result/10-10-24/S&P500stock_10-10-24period252RS90.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="新細明體"/>
       <family val="2"/>
@@ -27,6 +27,7 @@
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
+      <family val="1"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -38,13 +39,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="1"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+    </font>
+    <font>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <color rgb="0000FF00"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -55,6 +77,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -91,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -101,6 +129,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -469,7 +502,7 @@
   <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AN7"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -677,7 +710,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>PLTR</t>
         </is>
@@ -783,7 +816,7 @@
           <t>2024-10-31 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI2" s="3" t="inlineStr">
+      <c r="AI2" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -867,7 +900,7 @@
       <c r="T3" s="2" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="U3" s="3" t="b">
+      <c r="U3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V3" s="2" t="b">
@@ -994,7 +1027,7 @@
       <c r="T4" t="n">
         <v>10</v>
       </c>
-      <c r="U4" s="3" t="b">
+      <c r="U4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="b">
@@ -1062,7 +1095,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
@@ -1121,7 +1154,7 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="3" t="b">
+      <c r="U5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V5" t="b">
@@ -1167,7 +1200,7 @@
           <t>2024-10-22 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI5" s="3" t="inlineStr">
+      <c r="AI5" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -1191,7 +1224,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>WAB</t>
         </is>
@@ -1208,13 +1241,13 @@
       <c r="E6" t="n">
         <v>0.93</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="9" t="n">
         <v>-1.275437734674387</v>
       </c>
       <c r="G6" t="n">
         <v>1.44</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="9" t="n">
         <v>-1.003218893702736</v>
       </c>
       <c r="I6" t="n">
@@ -1250,7 +1283,7 @@
       <c r="T6" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U6" s="3" t="b">
+      <c r="U6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V6" t="b">
@@ -1294,7 +1327,7 @@
           <t>2024-10-23 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI6" s="3" t="inlineStr">
+      <c r="AI6" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -1318,7 +1351,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>NVDA</t>
         </is>
@@ -1341,7 +1374,7 @@
       <c r="G7" s="2" t="n">
         <v>4.13</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="10" t="n">
         <v>2.630943727751265</v>
       </c>
       <c r="I7" s="2" t="n">
@@ -1422,7 +1455,7 @@
           <t>2024-11-19 16:00:00-05:00</t>
         </is>
       </c>
-      <c r="AI7" s="3" t="inlineStr">
+      <c r="AI7" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -1505,7 +1538,7 @@
       <c r="T8" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U8" s="3" t="b">
+      <c r="U8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V8" t="b">
@@ -1827,7 +1860,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>LDOS</t>
         </is>
@@ -1844,13 +1877,13 @@
       <c r="E11" t="n">
         <v>0.77</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="9" t="n">
         <v>-1.592857261216533</v>
       </c>
       <c r="G11" t="n">
         <v>1.2</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="9" t="n">
         <v>-1.327456451007182</v>
       </c>
       <c r="I11" t="n">
@@ -1930,7 +1963,7 @@
           <t>2024-10-29 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI11" s="3" t="inlineStr">
+      <c r="AI11" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -1954,7 +1987,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>KLAC</t>
         </is>
@@ -1977,7 +2010,7 @@
       <c r="G12" t="n">
         <v>3.72</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="11" t="n">
         <v>2.077037900689503</v>
       </c>
       <c r="I12" t="n">
@@ -2057,7 +2090,7 @@
           <t>2024-10-30 19:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI12" s="3" t="inlineStr">
+      <c r="AI12" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -2081,7 +2114,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>NTAP</t>
         </is>
@@ -2140,7 +2173,7 @@
       <c r="T13" t="n">
         <v>5</v>
       </c>
-      <c r="U13" s="3" t="b">
+      <c r="U13" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V13" t="b">
@@ -2184,7 +2217,7 @@
           <t>2024-11-21 16:00:00-05:00</t>
         </is>
       </c>
-      <c r="AI13" s="3" t="inlineStr">
+      <c r="AI13" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -2208,7 +2241,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>NFLX</t>
         </is>
@@ -2267,7 +2300,7 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="b">
+      <c r="U14" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V14" t="b">
@@ -2311,7 +2344,7 @@
           <t>2024-10-17 16:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI14" s="3" t="inlineStr">
+      <c r="AI14" s="8" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
@@ -2335,7 +2368,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>HWM</t>
         </is>
@@ -2352,7 +2385,7 @@
       <c r="E15" t="n">
         <v>0.8</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="9" t="n">
         <v>-1.53334109998988</v>
       </c>
       <c r="G15" t="n">
@@ -2399,7 +2432,7 @@
       <c r="T15" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U15" s="3" t="b">
+      <c r="U15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V15" t="b">
@@ -2443,7 +2476,7 @@
           <t>2024-10-31 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI15" s="3" t="inlineStr">
+      <c r="AI15" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -2467,7 +2500,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>META</t>
         </is>
@@ -2526,7 +2559,7 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" s="3" t="b">
+      <c r="U16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V16" t="b">
@@ -2570,7 +2603,7 @@
           <t>2024-10-30 16:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI16" s="3" t="inlineStr">
+      <c r="AI16" s="8" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
@@ -2594,7 +2627,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>UBER</t>
         </is>
@@ -2699,7 +2732,7 @@
           <t>2024-10-31 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI17" s="3" t="inlineStr">
+      <c r="AI17" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -2782,7 +2815,7 @@
       <c r="T18" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U18" s="3" t="b">
+      <c r="U18" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V18" t="b">
@@ -2850,7 +2883,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="8" t="inlineStr">
         <is>
           <t>AXON</t>
         </is>
@@ -2953,7 +2986,7 @@
           <t>2024-11-05 16:00:00-05:00</t>
         </is>
       </c>
-      <c r="AI19" s="3" t="inlineStr">
+      <c r="AI19" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -2977,7 +3010,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>CTAS</t>
         </is>
@@ -2994,13 +3027,13 @@
       <c r="E20" t="n">
         <v>1.02</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="9" t="n">
         <v>-1.09688925099443</v>
       </c>
       <c r="G20" t="n">
         <v>1.21</v>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="9" t="n">
         <v>-1.313946552786164</v>
       </c>
       <c r="I20" t="n">
@@ -3036,7 +3069,7 @@
       <c r="T20" t="n">
         <v>3.888888888888888</v>
       </c>
-      <c r="U20" s="3" t="b">
+      <c r="U20" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V20" t="b">
@@ -3080,7 +3113,7 @@
           <t>2024-12-19 08:00:00-05:00</t>
         </is>
       </c>
-      <c r="AI20" s="3" t="inlineStr">
+      <c r="AI20" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -3104,7 +3137,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>TT</t>
         </is>
@@ -3121,7 +3154,7 @@
       <c r="E21" t="n">
         <v>0.96</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="9" t="n">
         <v>-1.215921573447735</v>
       </c>
       <c r="G21" t="n">
@@ -3163,7 +3196,7 @@
       <c r="T21" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U21" s="3" t="b">
+      <c r="U21" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V21" t="b">
@@ -3207,7 +3240,7 @@
           <t>2024-10-30 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI21" s="3" t="inlineStr">
+      <c r="AI21" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -3248,16 +3281,16 @@
       <c r="E22" t="n">
         <v>0.89</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="9" t="n">
         <v>-1.354792616309924</v>
       </c>
       <c r="G22" t="n">
         <v>1.1</v>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="9" t="n">
         <v>-1.462555433217368</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="7" t="n">
         <v>72.49199981689453</v>
       </c>
       <c r="J22" t="n">
@@ -3290,7 +3323,7 @@
       <c r="T22" t="n">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="b">
+      <c r="U22" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V22" t="b">
@@ -3487,7 +3520,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>ANET</t>
         </is>
@@ -3590,7 +3623,7 @@
           <t>2024-10-28 06:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI24" s="3" t="inlineStr">
+      <c r="AI24" s="8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -3614,7 +3647,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="8" t="inlineStr">
         <is>
           <t>GNRC</t>
         </is>
@@ -3717,7 +3750,7 @@
           <t>2024-10-30 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI25" s="3" t="inlineStr">
+      <c r="AI25" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -4054,7 +4087,7 @@
       <c r="T28" t="n">
         <v>0</v>
       </c>
-      <c r="U28" s="3" t="b">
+      <c r="U28" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V28" t="b">
@@ -4122,7 +4155,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>PWR</t>
         </is>
@@ -4181,7 +4214,7 @@
       <c r="T29" t="n">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="b">
+      <c r="U29" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V29" t="b">
@@ -4225,7 +4258,7 @@
           <t>2024-10-31 08:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI29" s="3" t="inlineStr">
+      <c r="AI29" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -4249,7 +4282,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>URI</t>
         </is>
@@ -4308,7 +4341,7 @@
       <c r="T30" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U30" s="3" t="b">
+      <c r="U30" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V30" t="b">
@@ -4352,7 +4385,7 @@
           <t>2024-10-23 06:00:00-04:00</t>
         </is>
       </c>
-      <c r="AI30" s="3" t="inlineStr">
+      <c r="AI30" s="8" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -4435,7 +4468,7 @@
       <c r="T31" t="n">
         <v>0</v>
       </c>
-      <c r="U31" s="3" t="b">
+      <c r="U31" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V31" t="b">
@@ -4562,7 +4595,7 @@
       <c r="T32" t="n">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="b">
+      <c r="U32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="V32" t="b">

--- a/Result/10-10-24/S&P500stock_10-10-24period252RS90.xlsx
+++ b/Result/10-10-24/S&P500stock_10-10-24period252RS90.xlsx
@@ -66,7 +66,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -89,6 +89,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -134,6 +140,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -900,7 +907,7 @@
       <c r="T3" s="2" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="U3" s="8" t="b">
+      <c r="U3" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V3" s="2" t="b">
@@ -1027,7 +1034,7 @@
       <c r="T4" t="n">
         <v>10</v>
       </c>
-      <c r="U4" s="8" t="b">
+      <c r="U4" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="b">
@@ -1154,7 +1161,7 @@
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="8" t="b">
+      <c r="U5" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V5" t="b">
@@ -1283,7 +1290,7 @@
       <c r="T6" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U6" s="8" t="b">
+      <c r="U6" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V6" t="b">
@@ -1538,7 +1545,7 @@
       <c r="T8" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U8" s="8" t="b">
+      <c r="U8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V8" t="b">
@@ -2173,7 +2180,7 @@
       <c r="T13" t="n">
         <v>5</v>
       </c>
-      <c r="U13" s="8" t="b">
+      <c r="U13" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V13" t="b">
@@ -2300,7 +2307,7 @@
       <c r="T14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" s="8" t="b">
+      <c r="U14" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V14" t="b">
@@ -2432,7 +2439,7 @@
       <c r="T15" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U15" s="8" t="b">
+      <c r="U15" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V15" t="b">
@@ -2559,7 +2566,7 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" s="8" t="b">
+      <c r="U16" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V16" t="b">
@@ -2815,7 +2822,7 @@
       <c r="T18" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U18" s="8" t="b">
+      <c r="U18" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V18" t="b">
@@ -3069,7 +3076,7 @@
       <c r="T20" t="n">
         <v>3.888888888888888</v>
       </c>
-      <c r="U20" s="8" t="b">
+      <c r="U20" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V20" t="b">
@@ -3196,7 +3203,7 @@
       <c r="T21" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U21" s="8" t="b">
+      <c r="U21" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V21" t="b">
@@ -3323,7 +3330,7 @@
       <c r="T22" t="n">
         <v>0</v>
       </c>
-      <c r="U22" s="8" t="b">
+      <c r="U22" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V22" t="b">
@@ -4087,7 +4094,7 @@
       <c r="T28" t="n">
         <v>0</v>
       </c>
-      <c r="U28" s="8" t="b">
+      <c r="U28" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V28" t="b">
@@ -4214,7 +4221,7 @@
       <c r="T29" t="n">
         <v>0</v>
       </c>
-      <c r="U29" s="8" t="b">
+      <c r="U29" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V29" t="b">
@@ -4341,7 +4348,7 @@
       <c r="T30" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U30" s="8" t="b">
+      <c r="U30" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V30" t="b">
@@ -4468,7 +4475,7 @@
       <c r="T31" t="n">
         <v>0</v>
       </c>
-      <c r="U31" s="8" t="b">
+      <c r="U31" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V31" t="b">
@@ -4595,7 +4602,7 @@
       <c r="T32" t="n">
         <v>0</v>
       </c>
-      <c r="U32" s="8" t="b">
+      <c r="U32" s="12" t="b">
         <v>1</v>
       </c>
       <c r="V32" t="b">
